--- a/Assignments/Ass_1/Novak.xlsx
+++ b/Assignments/Ass_1/Novak.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sem 6\DV\Assignments\Ass_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sem 6\data_visualization\Assignments\Ass_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63250F71-0DC6-4435-8143-514BE2D6768B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24B59E4-0C6F-4A7A-91D6-0ACD0FC6ACF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D543051B-DD8B-4040-99D8-BAAF8AD44A15}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>year</t>
   </si>
@@ -94,6 +94,21 @@
   </si>
   <si>
     <t xml:space="preserve">Novak Djokovic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominic Thiem </t>
+  </si>
+  <si>
+    <t>ace1</t>
+  </si>
+  <si>
+    <t>ace2</t>
+  </si>
+  <si>
+    <t>Novak Djokovic firstPointWon1%</t>
+  </si>
+  <si>
+    <t>Opponent firstPointWon2%</t>
   </si>
 </sst>
 </file>
@@ -204,7 +219,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Serve Win Percentage</a:t>
+              <a:t> Serve Win %</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -285,7 +300,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -330,10 +345,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$7</c:f>
+              <c:f>Sheet2!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2011</c:v>
                 </c:pt>
@@ -351,16 +366,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$7</c:f>
+              <c:f>Sheet2!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.6</c:v>
                 </c:pt>
@@ -378,6 +396,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -427,7 +448,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -472,10 +493,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$7</c:f>
+              <c:f>Sheet2!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2011</c:v>
                 </c:pt>
@@ -493,16 +514,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$2:$C$7</c:f>
+              <c:f>Sheet2!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.31</c:v>
                 </c:pt>
@@ -520,6 +544,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -639,13 +666,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet2!$A$2:$A$7</c15:sqref>
+                          <c15:sqref>Sheet2!$A$2:$A$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>2011</c:v>
                       </c:pt>
@@ -663,6 +690,9 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2020</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -937,6 +967,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31805380577427822"/>
+          <c:y val="0.90001633831915573"/>
+          <c:w val="0.35972572178477691"/>
+          <c:h val="7.9903340395703543E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -950,7 +990,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -975,12 +1015,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1038,11 +1073,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Return %</a:t>
+              <a:t>Return Points Win %</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42638464455399167"/>
+          <c:y val="4.1041682908448326E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1098,7 +1141,9 @@
               <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1118,7 +1163,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1133,7 +1178,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1163,10 +1207,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$A$9:$A$14</c:f>
+              <c:f>Sheet2!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2011</c:v>
                 </c:pt>
@@ -1184,16 +1228,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$7</c:f>
+              <c:f>Sheet2!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.51</c:v>
                 </c:pt>
@@ -1210,6 +1257,9 @@
                   <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.39</c:v>
                 </c:pt>
               </c:numCache>
@@ -1240,12 +1290,161 @@
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4164305949008476E-2"/>
+                  <c:y val="1.2376237623762377E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-4A7F-4813-8E0B-955495EB7BC1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.1803588290840416E-2"/>
+                  <c:y val="4.125412541254125E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-4A7F-4813-8E0B-955495EB7BC1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.180358829084033E-2"/>
+                  <c:y val="1.23762376237623E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-4A7F-4813-8E0B-955495EB7BC1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.1803588290840416E-2"/>
+                  <c:y val="1.2376237623762377E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-4A7F-4813-8E0B-955495EB7BC1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4164305949008412E-2"/>
+                  <c:y val="8.2508250825082501E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-4A7F-4813-8E0B-955495EB7BC1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4164305949008499E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-4A7F-4813-8E0B-955495EB7BC1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.0821529745040759E-3"/>
+                  <c:y val="8.2508250825082501E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-4A7F-4813-8E0B-955495EB7BC1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1260,7 +1459,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1275,7 +1474,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1305,10 +1503,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$A$9:$A$14</c:f>
+              <c:f>Sheet2!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2011</c:v>
                 </c:pt>
@@ -1326,16 +1524,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$2:$E$7</c:f>
+              <c:f>Sheet2!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.33</c:v>
                 </c:pt>
@@ -1353,6 +1554,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1364,7 +1568,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -1373,7 +1576,6 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
         <c:axId val="578126496"/>
         <c:axId val="587356040"/>
         <c:extLst>
@@ -1455,13 +1657,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet2!$A$9:$A$14</c15:sqref>
+                          <c15:sqref>Sheet2!$A$2:$A$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>2011</c:v>
                       </c:pt>
@@ -1480,6 +1682,9 @@
                       <c:pt idx="5">
                         <c:v>2019</c:v>
                       </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2020</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1495,24 +1700,6 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>2011</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2012</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2013</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>2015</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2016</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>2019</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -1533,6 +1720,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1598,6 +1840,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1643,6 +1940,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3759130586721986"/>
+          <c:y val="0.88795444505080434"/>
+          <c:w val="0.36897905467199038"/>
+          <c:h val="7.4599477664301861E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1656,7 +1963,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1688,12 +1995,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2325,6 +2627,775 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>First Point Win %</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Novak Djokovic </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.3548775153105861E-2"/>
+                  <c:y val="7.1793890347039868E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-377C-4363-B8DA-6C991AA82A21}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5215441819772627E-2"/>
+                  <c:y val="5.7905001458151063E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-377C-4363-B8DA-6C991AA82A21}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-377C-4363-B8DA-6C991AA82A21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Opponent </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.7993219597550305E-2"/>
+                  <c:y val="4.8645742198891763E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-377C-4363-B8DA-6C991AA82A21}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.521544181977253E-2"/>
+                  <c:y val="4.8645742198891846E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-377C-4363-B8DA-6C991AA82A21}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5215441819772578E-2"/>
+                  <c:y val="-5.7835739282589678E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-377C-4363-B8DA-6C991AA82A21}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5215441819772627E-2"/>
+                  <c:y val="5.7905001458151022E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-377C-4363-B8DA-6C991AA82A21}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5215441819772627E-2"/>
+                  <c:y val="4.4016112569262175E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-377C-4363-B8DA-6C991AA82A21}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.5770997375328085E-2"/>
+                  <c:y val="4.8645742198891763E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-377C-4363-B8DA-6C991AA82A21}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-377C-4363-B8DA-6C991AA82A21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="778510208"/>
+        <c:axId val="778511848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="778510208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="778511848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="778511848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="778510208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2445,6 +3516,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3964,20 +5075,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4004,16 +5631,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4041,15 +5668,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4069,6 +5696,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A58F7FF-1711-4A9B-BDD3-8A73DCAD2998}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4374,15 +6037,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27CC638-DF21-4DC8-9D3C-5868A70B24A1}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4422,8 +6089,14 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2011</v>
       </c>
@@ -4463,8 +6136,14 @@
       <c r="M2">
         <v>78</v>
       </c>
+      <c r="N2">
+        <v>6</v>
+      </c>
+      <c r="O2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2012</v>
       </c>
@@ -4504,8 +6183,14 @@
       <c r="M3">
         <v>176</v>
       </c>
+      <c r="N3">
+        <v>9</v>
+      </c>
+      <c r="O3">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2013</v>
       </c>
@@ -4545,8 +6230,14 @@
       <c r="M4">
         <v>126</v>
       </c>
+      <c r="N4">
+        <v>8</v>
+      </c>
+      <c r="O4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -4586,8 +6277,14 @@
       <c r="M5">
         <v>118</v>
       </c>
+      <c r="N5">
+        <v>11</v>
+      </c>
+      <c r="O5">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -4627,8 +6324,14 @@
       <c r="M6">
         <v>99</v>
       </c>
+      <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -4639,25 +6342,25 @@
         <v>15</v>
       </c>
       <c r="D7" s="2">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="E7" s="2">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="F7" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="H7" s="2">
         <v>0.84</v>
       </c>
-      <c r="G7" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.6</v>
-      </c>
       <c r="I7" s="2">
-        <v>0.32</v>
+        <v>0.62</v>
       </c>
       <c r="J7" s="2">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
       <c r="K7" s="2">
         <v>0.2</v>
@@ -4667,6 +6370,59 @@
       </c>
       <c r="M7">
         <v>59</v>
+      </c>
+      <c r="N7">
+        <v>8</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="L8">
+        <v>157</v>
+      </c>
+      <c r="M8">
+        <v>147</v>
+      </c>
+      <c r="N8">
+        <v>9</v>
+      </c>
+      <c r="O8">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4677,15 +6433,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347B1A8D-4088-4328-8D86-4B421650FF2F}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4701,8 +6457,12 @@
       <c r="E1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -4720,6 +6480,12 @@
       <c r="E2" s="2">
         <v>0.33</v>
       </c>
+      <c r="F2" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -4737,6 +6503,12 @@
       <c r="E3" s="2">
         <v>0.34</v>
       </c>
+      <c r="F3" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -4754,6 +6526,12 @@
       <c r="E4" s="2">
         <v>0.28000000000000003</v>
       </c>
+      <c r="F4" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.81</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -4771,6 +6549,12 @@
       <c r="E5" s="2">
         <v>0.4</v>
       </c>
+      <c r="F5" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -4788,6 +6572,12 @@
       <c r="E6" s="2">
         <v>0.33</v>
       </c>
+      <c r="F6" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -4800,10 +6590,16 @@
         <v>0.32</v>
       </c>
       <c r="D7" s="2">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
       <c r="E7" s="2">
         <v>0.2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.51</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -4816,35 +6612,17 @@
       <c r="C8" s="2">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2019</v>
+      <c r="D8" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.69</v>
       </c>
     </row>
   </sheetData>
